--- a/data/trans_dic/P26-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P26-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3998013982141123</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1960419032967841</v>
+        <v>0.1960419032967842</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4706051072086624</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4408355773061305</v>
+        <v>0.4409965072271438</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4744468601572247</v>
+        <v>0.4766557110318076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3518828012928265</v>
+        <v>0.3546854846293678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1334204832804102</v>
+        <v>0.1362621787359649</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4235785469927916</v>
+        <v>0.4227002943362991</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4693296251342623</v>
+        <v>0.4715824229529007</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3201322512154834</v>
+        <v>0.3213359603197083</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1507781294972197</v>
+        <v>0.1451524606109842</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4457306216603265</v>
+        <v>0.4474022712592394</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.48695409193498</v>
+        <v>0.4914680415167593</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3465220816333737</v>
+        <v>0.3480818447603696</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1578836552210167</v>
+        <v>0.1596626168281673</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5333296494589452</v>
+        <v>0.528371445296781</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.570916289333177</v>
+        <v>0.5738643149035692</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4564375387185082</v>
+        <v>0.4567481590925015</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2718965238942127</v>
+        <v>0.2679628425056736</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5171281831387683</v>
+        <v>0.5150177119271681</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5678112844250985</v>
+        <v>0.5645684129637244</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4134969165090524</v>
+        <v>0.4169956309914193</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2640507505274533</v>
+        <v>0.2624906363069882</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5105807484019199</v>
+        <v>0.5127195823171999</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5550604286627651</v>
+        <v>0.5573192849425124</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4166595274811483</v>
+        <v>0.4190016954705248</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2519683927390719</v>
+        <v>0.2447210807643343</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3088205692110193</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1705554793109803</v>
+        <v>0.1705554793109804</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4082410159654701</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3013787252200579</v>
+        <v>0.299729626810638</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3499530938236639</v>
+        <v>0.3474151196741697</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2729337802372131</v>
+        <v>0.2701883537568182</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1266293698355823</v>
+        <v>0.1246324678722519</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.369659231556016</v>
+        <v>0.3679038102798537</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3639687197251157</v>
+        <v>0.3633095902750536</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.317852943284911</v>
+        <v>0.3169587762614204</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1361489308742179</v>
+        <v>0.1363861393852056</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3426306492488639</v>
+        <v>0.3429552666956002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3687508042292129</v>
+        <v>0.3672593682900164</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3022257614110924</v>
+        <v>0.3048570384592376</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1408927865361085</v>
+        <v>0.1425452608844071</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3712140074281409</v>
+        <v>0.374552060030043</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4272168496720086</v>
+        <v>0.4260219720325629</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3478522960550823</v>
+        <v>0.3507391427517885</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2262201339144734</v>
+        <v>0.2224179234905743</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4517650964403122</v>
+        <v>0.4487021103730245</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4468622750467718</v>
+        <v>0.4458030225791196</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3930531907072085</v>
+        <v>0.3930341702108786</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2065936188673792</v>
+        <v>0.2070412444825696</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3989994682151689</v>
+        <v>0.3961367257649668</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4224521551934561</v>
+        <v>0.4241510562846015</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3579468213073777</v>
+        <v>0.3582637666345117</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2010618664020688</v>
+        <v>0.1990323360337586</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2495571867316159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08529901476973215</v>
+        <v>0.08529901476973216</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3961910723537926</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1964257906785864</v>
+        <v>0.1962780945085615</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2747961301316958</v>
+        <v>0.2776182619470083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2164206937925088</v>
+        <v>0.2161677222238233</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06263600800115794</v>
+        <v>0.06302906314145447</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3580799358523893</v>
+        <v>0.3587723598870668</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3580816851191393</v>
+        <v>0.3596103130353873</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2379696835558674</v>
+        <v>0.2358436589381905</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1155524063834798</v>
+        <v>0.1168936331662664</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2894509731419691</v>
+        <v>0.2927143784612515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3294302143948659</v>
+        <v>0.3309984385471131</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2383501240996169</v>
+        <v>0.2386947888395023</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09808814467939991</v>
+        <v>0.09697527401332784</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2665539480498241</v>
+        <v>0.2664672578051796</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3516904798847396</v>
+        <v>0.3491875994584052</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.285901827557455</v>
+        <v>0.2867204027018953</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1116280837184435</v>
+        <v>0.1122689965389813</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4332274412934239</v>
+        <v>0.4380266131942117</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4346464089313611</v>
+        <v>0.4357314448662221</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3092801421769909</v>
+        <v>0.3039733398811118</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.162706728696662</v>
+        <v>0.1693820934731798</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3447138162672733</v>
+        <v>0.3465203345424339</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3827157996128863</v>
+        <v>0.3856944629232399</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2898344060926112</v>
+        <v>0.2869893308688186</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1330605428570442</v>
+        <v>0.1326048847493472</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2603841276886594</v>
+        <v>0.2598100088488593</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2991484866145627</v>
+        <v>0.2940734675268191</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2147128198914076</v>
+        <v>0.2145735058437708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08955662353583461</v>
+        <v>0.08728222118894902</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3794328890876504</v>
+        <v>0.3881445870745506</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4286343885228071</v>
+        <v>0.4270261434639559</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2510134164005394</v>
+        <v>0.2534585356027836</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1241692820281606</v>
+        <v>0.1259848041313789</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3314066161639552</v>
+        <v>0.332141342877758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3735440485132671</v>
+        <v>0.3788681354920622</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2431122329196428</v>
+        <v>0.2452155665227341</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1147477106860205</v>
+        <v>0.114834758679182</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.346286969523335</v>
+        <v>0.3530981153055571</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3787183426272986</v>
+        <v>0.3790985917937788</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2872755687168975</v>
+        <v>0.2867608360096268</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1420128171457609</v>
+        <v>0.1414640560733961</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4713781513495854</v>
+        <v>0.4746092282617848</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5168520522920707</v>
+        <v>0.5173921612930309</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.327157683193985</v>
+        <v>0.3330565377766005</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1658679901667496</v>
+        <v>0.1666372860683298</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3951402061528493</v>
+        <v>0.3979089674214608</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4354827289368041</v>
+        <v>0.4387945423370851</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2955746525427281</v>
+        <v>0.2974801678023331</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.147535644772073</v>
+        <v>0.1488842754886766</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2494992449039063</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1285700277781799</v>
+        <v>0.12857002777818</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2733365429384309</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1786899731715778</v>
+        <v>0.1781899974441923</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2216193181966346</v>
+        <v>0.2216780860477631</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1911896537475336</v>
+        <v>0.1923934261431148</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0995607165113149</v>
+        <v>0.10033762765217</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2793587392922487</v>
+        <v>0.2777760331978182</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3207169851235359</v>
+        <v>0.3172849821839469</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2040912719302066</v>
+        <v>0.2036532740098655</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1076330552979848</v>
+        <v>0.1069462775936368</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.242210097375601</v>
+        <v>0.2427346895497002</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.285642991509601</v>
+        <v>0.2832122135542053</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2097723653475549</v>
+        <v>0.2108535284118666</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1088501061070703</v>
+        <v>0.1092121700111487</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2659209917208119</v>
+        <v>0.2670530414766001</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3150405813349509</v>
+        <v>0.3133709589417989</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2737550417152966</v>
+        <v>0.2779331474474162</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1525280518341983</v>
+        <v>0.1512594870842023</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3744710572584884</v>
+        <v>0.3760918059378173</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4173692383451294</v>
+        <v>0.4116416551100998</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2924151595064469</v>
+        <v>0.2928013177640098</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1526789013398598</v>
+        <v>0.1497711655943068</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3084836876991002</v>
+        <v>0.309142426061253</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3549559375658087</v>
+        <v>0.3527120601349111</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2690528480210365</v>
+        <v>0.2695194952821699</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1450930984098315</v>
+        <v>0.1441764701426437</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.1260910686981417</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.06710680093784194</v>
+        <v>0.06710680093784192</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.192587845568638</v>
@@ -1365,7 +1365,7 @@
         <v>0.1372440131943012</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.09891619586576281</v>
+        <v>0.09891619586576278</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1459392903372475</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06562756508199409</v>
+        <v>0.06342947309047094</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1389188277168983</v>
+        <v>0.1389965270444328</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09385358886506696</v>
+        <v>0.09064695275382287</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04634840463096907</v>
+        <v>0.04583524215053808</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1505504448074101</v>
+        <v>0.1514231439373937</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1876956238178212</v>
+        <v>0.189755051458584</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1018785588540932</v>
+        <v>0.09897183434692429</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07892618775190528</v>
+        <v>0.07635717693598017</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1193289750403201</v>
+        <v>0.1188954013972209</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1770462454445969</v>
+        <v>0.1780253218220373</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1068256335884009</v>
+        <v>0.1064512310741804</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06746362302133559</v>
+        <v>0.06722842518076055</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1369771419330295</v>
+        <v>0.1362386453356613</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2346098945721705</v>
+        <v>0.2358246121157461</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1700683539524762</v>
+        <v>0.1673479360293628</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09148429195484629</v>
+        <v>0.09094940615460205</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2388034237988521</v>
+        <v>0.238946939948638</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2879673332086624</v>
+        <v>0.2888072864600355</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1865252776965601</v>
+        <v>0.1809386550040637</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1242148396685468</v>
+        <v>0.1235793971441729</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1776159439192203</v>
+        <v>0.176248618178441</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2457928776333416</v>
+        <v>0.2435002073855041</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1615402987846576</v>
+        <v>0.162691963138888</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09983987375849433</v>
+        <v>0.1001143017505733</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1046591124633615</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.06160171093484727</v>
+        <v>0.06160171093484725</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1475188462927344</v>
@@ -1513,7 +1513,7 @@
         <v>0.08912537940196022</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.04103596330091757</v>
+        <v>0.04103596330091758</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06760716444262185</v>
+        <v>0.07142943173805569</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07011409295842554</v>
+        <v>0.06675426547159327</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04085055665883573</v>
+        <v>0.04296501326571639</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.004404980287877641</v>
+        <v>0.005355341967623798</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.129482147321051</v>
+        <v>0.1238887215183938</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1378974172632343</v>
+        <v>0.1374307660659974</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06825866208987438</v>
+        <v>0.07118417854526024</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04226390738797802</v>
+        <v>0.04423246665530851</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1111238621851702</v>
+        <v>0.1101326789842585</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1216820156710876</v>
+        <v>0.1192829636132446</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06378801611981863</v>
+        <v>0.06579194186892176</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02895561165441828</v>
+        <v>0.03014166130881107</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1723934228543307</v>
+        <v>0.1736286954379031</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1574011820391434</v>
+        <v>0.1592061252438895</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09952233182526363</v>
+        <v>0.101876896550558</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03412917247186767</v>
+        <v>0.03566828817356717</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2310313495622764</v>
+        <v>0.2288058796094541</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2260952951742224</v>
+        <v>0.2280887564760618</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1477088167386001</v>
+        <v>0.1497904916896285</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08518073302928136</v>
+        <v>0.08668065884928436</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1828541828649902</v>
+        <v>0.1854827815247108</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1850699340120644</v>
+        <v>0.1823714932264471</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1171344034041191</v>
+        <v>0.1183694758183782</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05560192321427302</v>
+        <v>0.05696581299154176</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2705848050544009</v>
+        <v>0.2707574411682034</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3106059583919552</v>
+        <v>0.313791861544638</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2374560259055203</v>
+        <v>0.2358948852814398</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09908772796387853</v>
+        <v>0.1011531224447863</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3528210550823786</v>
+        <v>0.3534214360958988</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3702195277666105</v>
+        <v>0.3691918211948201</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2521939674098385</v>
+        <v>0.252025069490217</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1257563462065384</v>
+        <v>0.1257389217908425</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3175317697436003</v>
+        <v>0.3175145461258579</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3452798315826338</v>
+        <v>0.3461827164662653</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2491402588457756</v>
+        <v>0.2492494024021447</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.118358105810615</v>
+        <v>0.1181300526318954</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3034906767651023</v>
+        <v>0.3052467026159444</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3447125344935202</v>
+        <v>0.3455722385912038</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2694897058107504</v>
+        <v>0.2681552675323045</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1272732680287439</v>
+        <v>0.1284429699255716</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3886787421808803</v>
+        <v>0.3874104871631546</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4052755009581617</v>
+        <v>0.4051984659763086</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2843944411464815</v>
+        <v>0.2819551037244463</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1485644074627164</v>
+        <v>0.1487716353345173</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3411137268497172</v>
+        <v>0.3410233680397469</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3707399818512888</v>
+        <v>0.3700936182335494</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2714448013132445</v>
+        <v>0.2720735874534042</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1359317860020401</v>
+        <v>0.135930775314454</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>208691</v>
+        <v>208767</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>212145</v>
+        <v>213132</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>144726</v>
+        <v>145879</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>52306</v>
+        <v>53420</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>192974</v>
+        <v>192574</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>197963</v>
+        <v>198913</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>122162</v>
+        <v>122622</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>52809</v>
+        <v>50839</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>414074</v>
+        <v>415627</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>423134</v>
+        <v>427056</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>274754</v>
+        <v>275991</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>117195</v>
+        <v>118515</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>252478</v>
+        <v>250131</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>255280</v>
+        <v>256598</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>187729</v>
+        <v>187856</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>106595</v>
+        <v>105053</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>235593</v>
+        <v>234632</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>239503</v>
+        <v>238135</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>157790</v>
+        <v>159126</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>92482</v>
+        <v>91936</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>474319</v>
+        <v>476306</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>482314</v>
+        <v>484277</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>330366</v>
+        <v>332223</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>187033</v>
+        <v>181653</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>209827</v>
+        <v>208679</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>229445</v>
+        <v>227781</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>151942</v>
+        <v>150414</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>55305</v>
+        <v>54433</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>220617</v>
+        <v>219570</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>216617</v>
+        <v>216225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>171740</v>
+        <v>171257</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>65776</v>
+        <v>65891</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>443034</v>
+        <v>443454</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>461233</v>
+        <v>459368</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>331545</v>
+        <v>334432</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>129603</v>
+        <v>131123</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>258448</v>
+        <v>260773</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>280103</v>
+        <v>279320</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>193649</v>
+        <v>195256</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>98801</v>
+        <v>97141</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>269619</v>
+        <v>267791</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>265951</v>
+        <v>265321</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>212371</v>
+        <v>212361</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>99810</v>
+        <v>100026</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>515921</v>
+        <v>512220</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>528403</v>
+        <v>530528</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>392672</v>
+        <v>393019</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>184951</v>
+        <v>183084</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>118590</v>
+        <v>118501</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>182325</v>
+        <v>184197</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>133573</v>
+        <v>133417</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35846</v>
+        <v>36071</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>238776</v>
+        <v>239237</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>251044</v>
+        <v>252116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>153064</v>
+        <v>151696</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>69607</v>
+        <v>70415</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>367766</v>
+        <v>371912</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>449531</v>
+        <v>451671</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>300416</v>
+        <v>300850</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>115222</v>
+        <v>113915</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>160930</v>
+        <v>160877</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>233344</v>
+        <v>231683</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>176456</v>
+        <v>176962</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>63884</v>
+        <v>64251</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>288886</v>
+        <v>292086</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>304722</v>
+        <v>305483</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>198931</v>
+        <v>195517</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>98011</v>
+        <v>102033</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>437981</v>
+        <v>440276</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>522243</v>
+        <v>526308</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>365307</v>
+        <v>361721</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>156303</v>
+        <v>155768</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>127072</v>
+        <v>126792</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>174365</v>
+        <v>171407</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>128584</v>
+        <v>128500</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>55505</v>
+        <v>54096</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>184341</v>
+        <v>188574</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>254229</v>
+        <v>253275</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>158171</v>
+        <v>159712</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>88903</v>
+        <v>90203</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>322741</v>
+        <v>323457</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>439281</v>
+        <v>445542</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>298783</v>
+        <v>301368</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>153276</v>
+        <v>153392</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>168994</v>
+        <v>172318</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>220744</v>
+        <v>220965</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>172039</v>
+        <v>171731</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>88017</v>
+        <v>87677</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>229012</v>
+        <v>230581</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>306552</v>
+        <v>306872</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>206152</v>
+        <v>209869</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>118758</v>
+        <v>119309</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>384808</v>
+        <v>387504</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>512120</v>
+        <v>516015</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>363259</v>
+        <v>365601</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>197073</v>
+        <v>198874</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>64566</v>
+        <v>64385</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>91621</v>
+        <v>91645</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>84557</v>
+        <v>85089</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>54988</v>
+        <v>55418</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>104336</v>
+        <v>103745</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>136822</v>
+        <v>135358</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>92712</v>
+        <v>92513</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>58999</v>
+        <v>58622</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>177979</v>
+        <v>178365</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>239948</v>
+        <v>237906</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>188068</v>
+        <v>189037</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>119785</v>
+        <v>120183</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>96085</v>
+        <v>96494</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>130243</v>
+        <v>129552</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>121073</v>
+        <v>122920</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>84243</v>
+        <v>83542</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>139859</v>
+        <v>140464</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>178056</v>
+        <v>175612</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>132835</v>
+        <v>133010</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>83690</v>
+        <v>82096</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>226678</v>
+        <v>227162</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>298173</v>
+        <v>296288</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>241215</v>
+        <v>241633</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>159668</v>
+        <v>158660</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>17162</v>
+        <v>16587</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>40341</v>
+        <v>40363</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>28659</v>
+        <v>27680</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>16773</v>
+        <v>16587</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>41816</v>
+        <v>42058</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>57585</v>
+        <v>58217</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>32777</v>
+        <v>31842</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>28846</v>
+        <v>27907</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>64349</v>
+        <v>64115</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>105730</v>
+        <v>106315</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>66989</v>
+        <v>66754</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>49071</v>
+        <v>48900</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>35820</v>
+        <v>35627</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>68128</v>
+        <v>68481</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>51933</v>
+        <v>51102</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>33108</v>
+        <v>32914</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>66328</v>
+        <v>66368</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>88348</v>
+        <v>88606</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>60009</v>
+        <v>58212</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>45397</v>
+        <v>45165</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>95780</v>
+        <v>95043</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>146785</v>
+        <v>145416</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>101300</v>
+        <v>102022</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>72620</v>
+        <v>72820</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>11335</v>
+        <v>11975</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15952</v>
+        <v>15188</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>8957</v>
+        <v>9421</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1163</v>
+        <v>1414</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>30571</v>
+        <v>29250</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>43884</v>
+        <v>43735</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>21303</v>
+        <v>22216</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>14537</v>
+        <v>15214</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>44867</v>
+        <v>44467</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>66409</v>
+        <v>65100</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>33895</v>
+        <v>34960</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>17607</v>
+        <v>18328</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>28902</v>
+        <v>29109</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>35812</v>
+        <v>36223</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>21822</v>
+        <v>22338</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>9014</v>
+        <v>9420</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>54547</v>
+        <v>54021</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>71951</v>
+        <v>72586</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>46099</v>
+        <v>46749</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>29298</v>
+        <v>29814</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>73828</v>
+        <v>74889</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>101003</v>
+        <v>99531</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>62241</v>
+        <v>62897</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>33809</v>
+        <v>34638</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>825789</v>
+        <v>826315</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1018936</v>
+        <v>1029387</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>748210</v>
+        <v>743291</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>316999</v>
+        <v>323606</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1091059</v>
+        <v>1092916</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1244971</v>
+        <v>1241515</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>828038</v>
+        <v>827483</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>428741</v>
+        <v>428682</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1950996</v>
+        <v>1950890</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2293787</v>
+        <v>2299785</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1603038</v>
+        <v>1603740</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>782166</v>
+        <v>780659</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>926213</v>
+        <v>931572</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1130822</v>
+        <v>1133642</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>849146</v>
+        <v>844942</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>407169</v>
+        <v>410911</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1201945</v>
+        <v>1198023</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1362857</v>
+        <v>1362598</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>933763</v>
+        <v>925754</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>506501</v>
+        <v>507207</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>2095889</v>
+        <v>2095334</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2462926</v>
+        <v>2458632</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1746552</v>
+        <v>1750597</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>898302</v>
+        <v>898295</v>
       </c>
     </row>
     <row r="36">
